--- a/teaching/traditional_assets/database/data/tunisia/tunisia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,79 +591,76 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.171</v>
+        <v>0.08165</v>
       </c>
       <c r="E2">
-        <v>0.145</v>
+        <v>-0.043</v>
       </c>
       <c r="G2">
-        <v>0.09075342465753425</v>
+        <v>0.1614035087719298</v>
       </c>
       <c r="H2">
-        <v>0.09075342465753425</v>
+        <v>0.1614035087719298</v>
       </c>
       <c r="I2">
-        <v>0.1310787671232877</v>
+        <v>0.1092731829573935</v>
       </c>
       <c r="J2">
-        <v>0.1038273783733922</v>
+        <v>0.07221157941196968</v>
       </c>
       <c r="K2">
-        <v>25.51</v>
+        <v>13.59</v>
       </c>
       <c r="L2">
-        <v>0.1092037671232877</v>
+        <v>0.06812030075187969</v>
       </c>
       <c r="M2">
-        <v>6.233000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0262552653748947</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2443355546844375</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.233000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0262552653748947</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.2443355546844375</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>18.12</v>
+        <v>14.18</v>
       </c>
       <c r="V2">
-        <v>0.07632687447346251</v>
+        <v>0.05962994112699747</v>
       </c>
       <c r="W2">
-        <v>0.146524064171123</v>
+        <v>0.0914950980392157</v>
       </c>
       <c r="X2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y2">
-        <v>0.07041212026296474</v>
+        <v>0.01577243406997311</v>
       </c>
       <c r="Z2">
-        <v>1.304612497696264</v>
+        <v>1.263738003990752</v>
       </c>
       <c r="AA2">
-        <v>0.1573197845682134</v>
+        <v>0.1043391827583219</v>
       </c>
       <c r="AB2">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC2">
-        <v>0.08120784066005508</v>
+        <v>0.0286165187890793</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-18.12</v>
+        <v>-14.18</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0826340751550529</v>
+        <v>-0.06341114390483857</v>
       </c>
       <c r="AK2">
-        <v>-0.1029662461643369</v>
+        <v>-0.08911513323278029</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.5431654676258993</v>
+        <v>-0.6274336283185841</v>
       </c>
     </row>
     <row r="3">
@@ -719,79 +716,76 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.171</v>
+        <v>0.138</v>
       </c>
       <c r="E3">
-        <v>0.334</v>
+        <v>0.107</v>
       </c>
       <c r="G3">
-        <v>0.1438569206842924</v>
+        <v>0.3567839195979899</v>
       </c>
       <c r="H3">
-        <v>0.1438569206842924</v>
+        <v>0.3567839195979899</v>
       </c>
       <c r="I3">
-        <v>0.2846034214618974</v>
+        <v>0.1926298157453936</v>
       </c>
       <c r="J3">
-        <v>0.2561430793157076</v>
+        <v>0.122470148909686</v>
       </c>
       <c r="K3">
-        <v>16.5</v>
+        <v>6.94</v>
       </c>
       <c r="L3">
-        <v>0.2566096423017107</v>
+        <v>0.1162479061976549</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03934942287513116</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2272727272727273</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>3.75</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03934942287513116</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2272727272727273</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>3</v>
+        <v>3.88</v>
       </c>
       <c r="V3">
-        <v>0.03147953830010494</v>
+        <v>0.02928301886792453</v>
       </c>
       <c r="W3">
-        <v>0.3594771241830065</v>
+        <v>0.1275735294117647</v>
       </c>
       <c r="X3">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y3">
-        <v>0.2833651802748482</v>
+        <v>0.05185086544252214</v>
       </c>
       <c r="Z3">
-        <v>1.482523286913216</v>
+        <v>1.162270028229339</v>
       </c>
       <c r="AA3">
-        <v>0.3797380798671955</v>
+        <v>0.1423433834305121</v>
       </c>
       <c r="AB3">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC3">
-        <v>0.3036261359590372</v>
+        <v>0.06662071946126956</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3</v>
+        <v>-3.88</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.03250270855904659</v>
+        <v>-0.03016638158917742</v>
       </c>
       <c r="AK3">
-        <v>-0.05836575875486381</v>
+        <v>-0.08580274214949138</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.1463414634146341</v>
+        <v>-0.3316239316239316</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BH Assurance (BVMT:BHASS)</t>
+          <t>Société Tunisienne d'Assurances et de Réassurances (BVMT:STAR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,79 +841,76 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.22</v>
+        <v>0.0253</v>
       </c>
       <c r="E4">
-        <v>0.145</v>
+        <v>-0.193</v>
       </c>
       <c r="G4">
-        <v>0.1293729372937294</v>
+        <v>0.07796852646638054</v>
       </c>
       <c r="H4">
-        <v>0.1293729372937294</v>
+        <v>0.07796852646638054</v>
       </c>
       <c r="I4">
-        <v>0.1293729372937294</v>
+        <v>0.07367668097281831</v>
       </c>
       <c r="J4">
-        <v>0.09337941668182566</v>
+        <v>0.05053416017291143</v>
       </c>
       <c r="K4">
-        <v>2.74</v>
+        <v>6.65</v>
       </c>
       <c r="L4">
-        <v>0.09042904290429044</v>
+        <v>0.04756795422031473</v>
       </c>
       <c r="M4">
-        <v>0.033</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.00118705035971223</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.01204379562043796</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.033</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.00118705035971223</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.01204379562043796</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>1.62</v>
+        <v>10.3</v>
       </c>
       <c r="V4">
-        <v>0.05827338129496403</v>
+        <v>0.09781576448243116</v>
       </c>
       <c r="W4">
-        <v>0.146524064171123</v>
+        <v>0.05541666666666667</v>
       </c>
       <c r="X4">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="Y4">
-        <v>0.07041212026296474</v>
+        <v>-0.02030599730257591</v>
       </c>
       <c r="Z4">
-        <v>1.684737281067556</v>
+        <v>1.312676056338028</v>
       </c>
       <c r="AA4">
-        <v>0.1573197845682134</v>
+        <v>0.06633498208613163</v>
       </c>
       <c r="AB4">
-        <v>0.07611194390815827</v>
+        <v>0.07572266396924258</v>
       </c>
       <c r="AC4">
-        <v>0.08120784066005508</v>
+        <v>-0.009387681883110954</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -931,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-1.62</v>
+        <v>-10.3</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -940,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.06187929717341482</v>
+        <v>-0.108421052631579</v>
       </c>
       <c r="AK4">
-        <v>-0.08960176991150444</v>
+        <v>-0.09043020193151888</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -955,135 +946,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-0.3857142857142857</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Société Tunisienne d'Assurances et de Réassurances, STAR S.A. (BVMT:STAR)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.0833</v>
-      </c>
-      <c r="E5">
-        <v>0.00349</v>
-      </c>
-      <c r="G5">
-        <v>0.05776978417266187</v>
-      </c>
-      <c r="H5">
-        <v>0.05776978417266187</v>
-      </c>
-      <c r="I5">
-        <v>0.06043165467625899</v>
-      </c>
-      <c r="J5">
-        <v>0.04559644703010156</v>
-      </c>
-      <c r="K5">
-        <v>6.27</v>
-      </c>
-      <c r="L5">
-        <v>0.04510791366906475</v>
-      </c>
-      <c r="M5">
-        <v>2.45</v>
-      </c>
-      <c r="N5">
-        <v>0.02143482064741907</v>
-      </c>
-      <c r="O5">
-        <v>0.3907496012759171</v>
-      </c>
-      <c r="P5">
-        <v>2.45</v>
-      </c>
-      <c r="Q5">
-        <v>0.02143482064741907</v>
-      </c>
-      <c r="R5">
-        <v>0.3907496012759171</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>13.5</v>
-      </c>
-      <c r="V5">
-        <v>0.1181102362204724</v>
-      </c>
-      <c r="W5">
-        <v>0.04906103286384976</v>
-      </c>
-      <c r="X5">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="Y5">
-        <v>-0.02705091104430851</v>
-      </c>
-      <c r="Z5">
-        <v>1.180968564146134</v>
-      </c>
-      <c r="AA5">
-        <v>0.0538479705793043</v>
-      </c>
-      <c r="AB5">
-        <v>0.07611194390815827</v>
-      </c>
-      <c r="AC5">
-        <v>-0.02226397332885397</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-13.5</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.1339285714285714</v>
-      </c>
-      <c r="AK5">
-        <v>-0.1267605633802817</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>-1.558891454965358</v>
+        <v>-0.944954128440367</v>
       </c>
     </row>
   </sheetData>
